--- a/TC01_EMPExport7.xlsx
+++ b/TC01_EMPExport7.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Cecil</t>
   </si>
   <si>
     <t>Bonaparte</t>
   </si>
+  <si>
+    <t xml:space="preserve">c xzṁ </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -38,27 +40,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -76,18 +73,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -96,10 +93,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -255,7 +252,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -264,13 +261,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -280,7 +277,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -289,7 +286,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -298,7 +295,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -308,12 +305,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -344,7 +341,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -363,7 +360,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -376,22 +373,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C2"/>
+  <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -403,7 +405,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -415,6 +417,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>